--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.914517</v>
+        <v>5.385511999999999</v>
       </c>
       <c r="H2">
-        <v>293.743551</v>
+        <v>16.156536</v>
       </c>
       <c r="I2">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514656</v>
       </c>
       <c r="J2">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514657</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3427716666666667</v>
+        <v>0.01506066666666667</v>
       </c>
       <c r="N2">
-        <v>1.028315</v>
+        <v>0.045182</v>
       </c>
       <c r="O2">
-        <v>0.877508945204065</v>
+        <v>0.2394078124668829</v>
       </c>
       <c r="P2">
-        <v>0.877508945204065</v>
+        <v>0.2394078124668829</v>
       </c>
       <c r="Q2">
-        <v>33.56232218295167</v>
+        <v>0.08110940106133332</v>
       </c>
       <c r="R2">
-        <v>302.0608996465651</v>
+        <v>0.729984609552</v>
       </c>
       <c r="S2">
-        <v>0.2969535421439798</v>
+        <v>0.006551089489363685</v>
       </c>
       <c r="T2">
-        <v>0.2969535421439798</v>
+        <v>0.006551089489363686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.914517</v>
+        <v>5.385511999999999</v>
       </c>
       <c r="H3">
-        <v>293.743551</v>
+        <v>16.156536</v>
       </c>
       <c r="I3">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514656</v>
       </c>
       <c r="J3">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514657</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.143542</v>
       </c>
       <c r="O3">
-        <v>0.122491054795935</v>
+        <v>0.7605921875331172</v>
       </c>
       <c r="P3">
-        <v>0.122491054795935</v>
+        <v>0.7605921875331172</v>
       </c>
       <c r="Q3">
-        <v>4.684948533071333</v>
+        <v>0.2576823878346666</v>
       </c>
       <c r="R3">
-        <v>42.16453679764201</v>
+        <v>2.319141490512</v>
       </c>
       <c r="S3">
-        <v>0.04145160320177296</v>
+        <v>0.02081263528578288</v>
       </c>
       <c r="T3">
-        <v>0.04145160320177296</v>
+        <v>0.02081263528578288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>461.27314</v>
       </c>
       <c r="I4">
-        <v>0.5314064034917035</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="J4">
-        <v>0.5314064034917034</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3427716666666667</v>
+        <v>0.01506066666666667</v>
       </c>
       <c r="N4">
-        <v>1.028315</v>
+        <v>0.045182</v>
       </c>
       <c r="O4">
-        <v>0.877508945204065</v>
+        <v>0.2394078124668829</v>
       </c>
       <c r="P4">
-        <v>0.877508945204065</v>
+        <v>0.2394078124668829</v>
       </c>
       <c r="Q4">
-        <v>52.70378766212222</v>
+        <v>2.315693667942222</v>
       </c>
       <c r="R4">
-        <v>474.3340889591</v>
+        <v>20.84124301148</v>
       </c>
       <c r="S4">
-        <v>0.4663138726026905</v>
+        <v>0.1870352419095148</v>
       </c>
       <c r="T4">
-        <v>0.4663138726026904</v>
+        <v>0.1870352419095148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>461.27314</v>
       </c>
       <c r="I5">
-        <v>0.5314064034917035</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="J5">
-        <v>0.5314064034917034</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.143542</v>
       </c>
       <c r="O5">
-        <v>0.122491054795935</v>
+        <v>0.7605921875331172</v>
       </c>
       <c r="P5">
-        <v>0.122491054795935</v>
+        <v>0.7605921875331172</v>
       </c>
       <c r="Q5">
         <v>7.35689656243111</v>
@@ -756,10 +756,10 @@
         <v>66.21206906188</v>
       </c>
       <c r="S5">
-        <v>0.065092530889013</v>
+        <v>0.5942059380765696</v>
       </c>
       <c r="T5">
-        <v>0.06509253088901298</v>
+        <v>0.5942059380765696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>113.006609</v>
       </c>
       <c r="I6">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="J6">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3427716666666667</v>
+        <v>0.01506066666666667</v>
       </c>
       <c r="N6">
-        <v>1.028315</v>
+        <v>0.045182</v>
       </c>
       <c r="O6">
-        <v>0.877508945204065</v>
+        <v>0.2394078124668829</v>
       </c>
       <c r="P6">
-        <v>0.877508945204065</v>
+        <v>0.2394078124668829</v>
       </c>
       <c r="Q6">
-        <v>12.91182123709278</v>
+        <v>0.5673182897597777</v>
       </c>
       <c r="R6">
-        <v>116.206391133835</v>
+        <v>5.105864607838</v>
       </c>
       <c r="S6">
-        <v>0.1142415304573946</v>
+        <v>0.04582148106800442</v>
       </c>
       <c r="T6">
-        <v>0.1142415304573946</v>
+        <v>0.04582148106800441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>113.006609</v>
       </c>
       <c r="I7">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="J7">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.143542</v>
       </c>
       <c r="O7">
-        <v>0.122491054795935</v>
+        <v>0.7605921875331172</v>
       </c>
       <c r="P7">
-        <v>0.122491054795935</v>
+        <v>0.7605921875331172</v>
       </c>
       <c r="Q7">
         <v>1.802354963230889</v>
@@ -880,10 +880,10 @@
         <v>16.221194669078</v>
       </c>
       <c r="S7">
-        <v>0.01594692070514904</v>
+        <v>0.1455736141707647</v>
       </c>
       <c r="T7">
-        <v>0.01594692070514904</v>
+        <v>0.1455736141707647</v>
       </c>
     </row>
   </sheetData>
